--- a/Файлы/1 курс/Практика/ЭКОНОМИКА И ФИНАНСОВАЯ ГРАМОТНОСТЬ/09.09.24.xlsx
+++ b/Файлы/1 курс/Практика/ЭКОНОМИКА И ФИНАНСОВАЯ ГРАМОТНОСТЬ/09.09.24.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luvid\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luvid\OneDrive\Desktop\python\Codespace\Файлы\1 курс\Практика\ЭКОНОМИКА И ФИНАНСОВАЯ ГРАМОТНОСТЬ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F19574-F7E0-4BF4-8942-1A23C8456A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A2815A-3ED2-483D-9086-ABA216297B14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1500" yWindow="432" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -456,8 +456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="93" workbookViewId="0">
+      <selection activeCell="D20" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -626,13 +626,13 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>20</v>
       </c>
     </row>
